--- a/tests/input/unit_commitment.xlsx
+++ b/tests/input/unit_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\whbles\pyaugmecon\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76325E5-275D-4C6F-B282-465814F2D667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20EC50-2C31-4C4E-AFF3-D5B7D1E445A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="2910" windowWidth="24645" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDemand" sheetId="2" r:id="rId1"/>
@@ -38,83 +38,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="238">
   <si>
     <t>SystemDemand</t>
   </si>
   <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>t2</t>
-  </si>
-  <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>t4</t>
-  </si>
-  <si>
-    <t>t5</t>
-  </si>
-  <si>
-    <t>t6</t>
-  </si>
-  <si>
-    <t>t7</t>
-  </si>
-  <si>
-    <t>t8</t>
-  </si>
-  <si>
-    <t>t9</t>
-  </si>
-  <si>
-    <t>t10</t>
-  </si>
-  <si>
-    <t>t11</t>
-  </si>
-  <si>
-    <t>t12</t>
-  </si>
-  <si>
-    <t>t13</t>
-  </si>
-  <si>
-    <t>t14</t>
-  </si>
-  <si>
-    <t>t15</t>
-  </si>
-  <si>
-    <t>t16</t>
-  </si>
-  <si>
-    <t>t17</t>
-  </si>
-  <si>
-    <t>t18</t>
-  </si>
-  <si>
-    <t>t19</t>
-  </si>
-  <si>
-    <t>t20</t>
-  </si>
-  <si>
-    <t>t21</t>
-  </si>
-  <si>
-    <t>t22</t>
-  </si>
-  <si>
-    <t>t23</t>
-  </si>
-  <si>
-    <t>t24</t>
-  </si>
-  <si>
     <t>PVGeneration</t>
   </si>
   <si>
@@ -296,13 +224,541 @@
   </si>
   <si>
     <t>Emissions</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Oil/Steam</t>
+  </si>
+  <si>
+    <t>Coal/Steam</t>
+  </si>
+  <si>
+    <t>Oil/CT</t>
+  </si>
+  <si>
+    <t>Nuclear</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>mon-t1</t>
+  </si>
+  <si>
+    <t>mon-t2</t>
+  </si>
+  <si>
+    <t>mon-t3</t>
+  </si>
+  <si>
+    <t>mon-t4</t>
+  </si>
+  <si>
+    <t>mon-t5</t>
+  </si>
+  <si>
+    <t>mon-t6</t>
+  </si>
+  <si>
+    <t>mon-t7</t>
+  </si>
+  <si>
+    <t>mon-t8</t>
+  </si>
+  <si>
+    <t>mon-t9</t>
+  </si>
+  <si>
+    <t>mon-t10</t>
+  </si>
+  <si>
+    <t>mon-t11</t>
+  </si>
+  <si>
+    <t>mon-t12</t>
+  </si>
+  <si>
+    <t>mon-t13</t>
+  </si>
+  <si>
+    <t>mon-t14</t>
+  </si>
+  <si>
+    <t>mon-t15</t>
+  </si>
+  <si>
+    <t>mon-t16</t>
+  </si>
+  <si>
+    <t>mon-t17</t>
+  </si>
+  <si>
+    <t>mon-t18</t>
+  </si>
+  <si>
+    <t>mon-t19</t>
+  </si>
+  <si>
+    <t>mon-t20</t>
+  </si>
+  <si>
+    <t>mon-t21</t>
+  </si>
+  <si>
+    <t>mon-t22</t>
+  </si>
+  <si>
+    <t>mon-t23</t>
+  </si>
+  <si>
+    <t>mon-t24</t>
+  </si>
+  <si>
+    <t>Default SystemDemand</t>
+  </si>
+  <si>
+    <t>tue-t1</t>
+  </si>
+  <si>
+    <t>tue-t2</t>
+  </si>
+  <si>
+    <t>tue-t3</t>
+  </si>
+  <si>
+    <t>tue-t4</t>
+  </si>
+  <si>
+    <t>tue-t5</t>
+  </si>
+  <si>
+    <t>tue-t6</t>
+  </si>
+  <si>
+    <t>tue-t7</t>
+  </si>
+  <si>
+    <t>tue-t8</t>
+  </si>
+  <si>
+    <t>tue-t9</t>
+  </si>
+  <si>
+    <t>tue-t10</t>
+  </si>
+  <si>
+    <t>tue-t11</t>
+  </si>
+  <si>
+    <t>tue-t12</t>
+  </si>
+  <si>
+    <t>tue-t13</t>
+  </si>
+  <si>
+    <t>tue-t14</t>
+  </si>
+  <si>
+    <t>tue-t15</t>
+  </si>
+  <si>
+    <t>tue-t16</t>
+  </si>
+  <si>
+    <t>tue-t17</t>
+  </si>
+  <si>
+    <t>tue-t18</t>
+  </si>
+  <si>
+    <t>tue-t19</t>
+  </si>
+  <si>
+    <t>tue-t20</t>
+  </si>
+  <si>
+    <t>tue-t21</t>
+  </si>
+  <si>
+    <t>tue-t22</t>
+  </si>
+  <si>
+    <t>tue-t23</t>
+  </si>
+  <si>
+    <t>tue-t24</t>
+  </si>
+  <si>
+    <t>wed-t1</t>
+  </si>
+  <si>
+    <t>wed-t2</t>
+  </si>
+  <si>
+    <t>wed-t3</t>
+  </si>
+  <si>
+    <t>wed-t4</t>
+  </si>
+  <si>
+    <t>wed-t5</t>
+  </si>
+  <si>
+    <t>wed-t6</t>
+  </si>
+  <si>
+    <t>wed-t7</t>
+  </si>
+  <si>
+    <t>wed-t8</t>
+  </si>
+  <si>
+    <t>wed-t9</t>
+  </si>
+  <si>
+    <t>wed-t10</t>
+  </si>
+  <si>
+    <t>wed-t11</t>
+  </si>
+  <si>
+    <t>wed-t12</t>
+  </si>
+  <si>
+    <t>wed-t13</t>
+  </si>
+  <si>
+    <t>wed-t14</t>
+  </si>
+  <si>
+    <t>wed-t15</t>
+  </si>
+  <si>
+    <t>wed-t16</t>
+  </si>
+  <si>
+    <t>wed-t17</t>
+  </si>
+  <si>
+    <t>wed-t18</t>
+  </si>
+  <si>
+    <t>wed-t19</t>
+  </si>
+  <si>
+    <t>wed-t20</t>
+  </si>
+  <si>
+    <t>wed-t21</t>
+  </si>
+  <si>
+    <t>wed-t22</t>
+  </si>
+  <si>
+    <t>wed-t23</t>
+  </si>
+  <si>
+    <t>wed-t24</t>
+  </si>
+  <si>
+    <t>thu-t1</t>
+  </si>
+  <si>
+    <t>thu-t2</t>
+  </si>
+  <si>
+    <t>thu-t3</t>
+  </si>
+  <si>
+    <t>thu-t4</t>
+  </si>
+  <si>
+    <t>thu-t5</t>
+  </si>
+  <si>
+    <t>thu-t6</t>
+  </si>
+  <si>
+    <t>thu-t7</t>
+  </si>
+  <si>
+    <t>thu-t8</t>
+  </si>
+  <si>
+    <t>thu-t9</t>
+  </si>
+  <si>
+    <t>thu-t10</t>
+  </si>
+  <si>
+    <t>thu-t11</t>
+  </si>
+  <si>
+    <t>thu-t12</t>
+  </si>
+  <si>
+    <t>thu-t13</t>
+  </si>
+  <si>
+    <t>thu-t14</t>
+  </si>
+  <si>
+    <t>thu-t15</t>
+  </si>
+  <si>
+    <t>thu-t16</t>
+  </si>
+  <si>
+    <t>thu-t17</t>
+  </si>
+  <si>
+    <t>thu-t18</t>
+  </si>
+  <si>
+    <t>thu-t19</t>
+  </si>
+  <si>
+    <t>thu-t20</t>
+  </si>
+  <si>
+    <t>thu-t21</t>
+  </si>
+  <si>
+    <t>thu-t22</t>
+  </si>
+  <si>
+    <t>thu-t23</t>
+  </si>
+  <si>
+    <t>thu-t24</t>
+  </si>
+  <si>
+    <t>fri-t1</t>
+  </si>
+  <si>
+    <t>fri-t2</t>
+  </si>
+  <si>
+    <t>fri-t3</t>
+  </si>
+  <si>
+    <t>fri-t4</t>
+  </si>
+  <si>
+    <t>fri-t5</t>
+  </si>
+  <si>
+    <t>fri-t6</t>
+  </si>
+  <si>
+    <t>fri-t7</t>
+  </si>
+  <si>
+    <t>fri-t8</t>
+  </si>
+  <si>
+    <t>fri-t9</t>
+  </si>
+  <si>
+    <t>fri-t10</t>
+  </si>
+  <si>
+    <t>fri-t11</t>
+  </si>
+  <si>
+    <t>fri-t12</t>
+  </si>
+  <si>
+    <t>fri-t13</t>
+  </si>
+  <si>
+    <t>fri-t14</t>
+  </si>
+  <si>
+    <t>fri-t15</t>
+  </si>
+  <si>
+    <t>fri-t16</t>
+  </si>
+  <si>
+    <t>fri-t17</t>
+  </si>
+  <si>
+    <t>fri-t18</t>
+  </si>
+  <si>
+    <t>fri-t19</t>
+  </si>
+  <si>
+    <t>fri-t20</t>
+  </si>
+  <si>
+    <t>fri-t21</t>
+  </si>
+  <si>
+    <t>fri-t22</t>
+  </si>
+  <si>
+    <t>fri-t23</t>
+  </si>
+  <si>
+    <t>fri-t24</t>
+  </si>
+  <si>
+    <t>sat-t1</t>
+  </si>
+  <si>
+    <t>sat-t2</t>
+  </si>
+  <si>
+    <t>sat-t3</t>
+  </si>
+  <si>
+    <t>sat-t4</t>
+  </si>
+  <si>
+    <t>sat-t5</t>
+  </si>
+  <si>
+    <t>sat-t6</t>
+  </si>
+  <si>
+    <t>sat-t7</t>
+  </si>
+  <si>
+    <t>sat-t8</t>
+  </si>
+  <si>
+    <t>sat-t9</t>
+  </si>
+  <si>
+    <t>sat-t10</t>
+  </si>
+  <si>
+    <t>sat-t11</t>
+  </si>
+  <si>
+    <t>sat-t12</t>
+  </si>
+  <si>
+    <t>sat-t13</t>
+  </si>
+  <si>
+    <t>sat-t14</t>
+  </si>
+  <si>
+    <t>sat-t15</t>
+  </si>
+  <si>
+    <t>sat-t16</t>
+  </si>
+  <si>
+    <t>sat-t17</t>
+  </si>
+  <si>
+    <t>sat-t18</t>
+  </si>
+  <si>
+    <t>sat-t19</t>
+  </si>
+  <si>
+    <t>sat-t20</t>
+  </si>
+  <si>
+    <t>sat-t21</t>
+  </si>
+  <si>
+    <t>sat-t22</t>
+  </si>
+  <si>
+    <t>sat-t23</t>
+  </si>
+  <si>
+    <t>sat-t24</t>
+  </si>
+  <si>
+    <t>sun-t1</t>
+  </si>
+  <si>
+    <t>sun-t2</t>
+  </si>
+  <si>
+    <t>sun-t3</t>
+  </si>
+  <si>
+    <t>sun-t4</t>
+  </si>
+  <si>
+    <t>sun-t5</t>
+  </si>
+  <si>
+    <t>sun-t6</t>
+  </si>
+  <si>
+    <t>sun-t7</t>
+  </si>
+  <si>
+    <t>sun-t8</t>
+  </si>
+  <si>
+    <t>sun-t9</t>
+  </si>
+  <si>
+    <t>sun-t10</t>
+  </si>
+  <si>
+    <t>sun-t11</t>
+  </si>
+  <si>
+    <t>sun-t12</t>
+  </si>
+  <si>
+    <t>sun-t13</t>
+  </si>
+  <si>
+    <t>sun-t14</t>
+  </si>
+  <si>
+    <t>sun-t15</t>
+  </si>
+  <si>
+    <t>sun-t16</t>
+  </si>
+  <si>
+    <t>sun-t17</t>
+  </si>
+  <si>
+    <t>sun-t18</t>
+  </si>
+  <si>
+    <t>sun-t19</t>
+  </si>
+  <si>
+    <t>sun-t20</t>
+  </si>
+  <si>
+    <t>sun-t21</t>
+  </si>
+  <si>
+    <t>sun-t22</t>
+  </si>
+  <si>
+    <t>sun-t23</t>
+  </si>
+  <si>
+    <t>sun-t24</t>
+  </si>
+  <si>
+    <t>ESS2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +770,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,7 +801,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,6 +819,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -637,10 +1100,1619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15DE950-C5FB-4373-941F-2DB97A6028B7}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A169" sqref="A2:A169"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
+        <f>0.93*H2</f>
+        <v>2352.9</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B25" si="0">0.93*H3</f>
+        <v>2148.3000000000002</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>1943.7</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>1943.7</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>2148.3000000000002</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>2352.9</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>2557.5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>2659.8000000000006</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2860.0000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>2762.1000000000004</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>2864.4000000000005</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3080.0000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>2864.4000000000005</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3080.0000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>2762.1000000000004</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>2659.8000000000006</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2860.0000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>2659.8000000000006</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2860.0000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>2557.5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>2557.5</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>2762.1000000000004</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>2966.7000000000007</v>
+      </c>
+      <c r="H21" s="2">
+        <v>3190.0000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>2966.7000000000007</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3190.0000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>2762.1000000000004</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>2557.5</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>2455.2000000000003</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2">
+        <f>H2</f>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2">
+        <f t="shared" ref="B27:B49" si="1">H3</f>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" si="1"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2">
+        <f t="shared" si="1"/>
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" si="1"/>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" si="1"/>
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2">
+        <f t="shared" si="1"/>
+        <v>2860.0000000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2">
+        <f t="shared" si="1"/>
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" si="1"/>
+        <v>3080.0000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="2">
+        <f t="shared" si="1"/>
+        <v>3080.0000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="2">
+        <f t="shared" si="1"/>
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="2">
+        <f t="shared" si="1"/>
+        <v>2860.0000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2">
+        <f t="shared" si="1"/>
+        <v>2860.0000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="2">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" si="1"/>
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" si="1"/>
+        <v>3190.0000000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2">
+        <f t="shared" si="1"/>
+        <v>3190.0000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="2">
+        <f t="shared" si="1"/>
+        <v>2970.0000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="2">
+        <f t="shared" si="1"/>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="2">
+        <f t="shared" si="1"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="2">
+        <f>0.98*H2</f>
+        <v>2479.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="2">
+        <f t="shared" ref="B51:B73" si="2">0.98*H3</f>
+        <v>2263.8000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="2">
+        <f t="shared" si="2"/>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" si="2"/>
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="2">
+        <f t="shared" si="2"/>
+        <v>2048.1999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="2">
+        <f t="shared" si="2"/>
+        <v>2048.1999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="2">
+        <f t="shared" si="2"/>
+        <v>2263.8000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="2">
+        <f t="shared" si="2"/>
+        <v>2479.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="2">
+        <f t="shared" si="2"/>
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="2">
+        <f t="shared" si="2"/>
+        <v>2802.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="2">
+        <f t="shared" si="2"/>
+        <v>2910.6000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2">
+        <f t="shared" si="2"/>
+        <v>3018.4000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="2">
+        <f t="shared" si="2"/>
+        <v>3018.4000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" si="2"/>
+        <v>2910.6000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="2">
+        <f t="shared" si="2"/>
+        <v>2802.8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="2">
+        <f t="shared" si="2"/>
+        <v>2802.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2">
+        <f t="shared" si="2"/>
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="2">
+        <f t="shared" si="2"/>
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="2">
+        <f t="shared" si="2"/>
+        <v>2910.6000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2">
+        <f t="shared" si="2"/>
+        <v>3126.2000000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2">
+        <f t="shared" si="2"/>
+        <v>3126.2000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2">
+        <f t="shared" si="2"/>
+        <v>2910.6000000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2">
+        <f t="shared" si="2"/>
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" si="2"/>
+        <v>2587.1999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="2">
+        <f>0.96*H2</f>
+        <v>2428.7999999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="2">
+        <f t="shared" ref="B75:B97" si="3">0.96*H3</f>
+        <v>2217.6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="2">
+        <f t="shared" si="3"/>
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2">
+        <f t="shared" si="3"/>
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="2">
+        <f t="shared" si="3"/>
+        <v>2006.3999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="2">
+        <f t="shared" si="3"/>
+        <v>2006.3999999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="2">
+        <f t="shared" si="3"/>
+        <v>2217.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="2">
+        <f t="shared" si="3"/>
+        <v>2428.7999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="2">
+        <f t="shared" si="3"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" si="3"/>
+        <v>2745.6000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="2">
+        <f t="shared" si="3"/>
+        <v>2851.2000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="2">
+        <f t="shared" si="3"/>
+        <v>2956.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="2">
+        <f t="shared" si="3"/>
+        <v>2956.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="2">
+        <f t="shared" si="3"/>
+        <v>2851.2000000000003</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="2">
+        <f t="shared" si="3"/>
+        <v>2745.6000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="2">
+        <f t="shared" si="3"/>
+        <v>2745.6000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="2">
+        <f t="shared" si="3"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="2">
+        <f t="shared" si="3"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="2">
+        <f t="shared" si="3"/>
+        <v>2851.2000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" si="3"/>
+        <v>3062.4000000000005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="2">
+        <f t="shared" si="3"/>
+        <v>3062.4000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="2">
+        <f t="shared" si="3"/>
+        <v>2851.2000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="2">
+        <f t="shared" si="3"/>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="2">
+        <f t="shared" si="3"/>
+        <v>2534.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="2">
+        <f>0.94*H2</f>
+        <v>2378.1999999999998</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="2">
+        <f t="shared" ref="B99:B121" si="4">0.94*H3</f>
+        <v>2171.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="2">
+        <f t="shared" si="4"/>
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="2">
+        <f t="shared" si="4"/>
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="2">
+        <f t="shared" si="4"/>
+        <v>1964.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" si="4"/>
+        <v>1964.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="2">
+        <f t="shared" si="4"/>
+        <v>2171.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="2">
+        <f t="shared" si="4"/>
+        <v>2378.1999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="2">
+        <f t="shared" si="4"/>
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="2">
+        <f t="shared" si="4"/>
+        <v>2688.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="2">
+        <f t="shared" si="4"/>
+        <v>2791.8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="2">
+        <f t="shared" si="4"/>
+        <v>2895.2000000000003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B110" s="2">
+        <f t="shared" si="4"/>
+        <v>2895.2000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" s="2">
+        <f t="shared" si="4"/>
+        <v>2791.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="2">
+        <f t="shared" si="4"/>
+        <v>2688.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" si="4"/>
+        <v>2688.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="2">
+        <f t="shared" si="4"/>
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B115" s="2">
+        <f t="shared" si="4"/>
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="2">
+        <f t="shared" si="4"/>
+        <v>2791.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" s="2">
+        <f t="shared" si="4"/>
+        <v>2998.6000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B118" s="2">
+        <f t="shared" si="4"/>
+        <v>2998.6000000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B119" s="2">
+        <f t="shared" si="4"/>
+        <v>2791.8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="2">
+        <f t="shared" si="4"/>
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="2">
+        <f t="shared" si="4"/>
+        <v>2481.6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122" s="2">
+        <f>0.77*H2</f>
+        <v>1948.1000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" ref="B123:B145" si="5">0.77*H3</f>
+        <v>1778.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="2">
+        <f t="shared" si="5"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="2">
+        <f t="shared" si="5"/>
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="2">
+        <f t="shared" si="5"/>
+        <v>1609.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" s="2">
+        <f t="shared" si="5"/>
+        <v>1609.3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B128" s="2">
+        <f t="shared" si="5"/>
+        <v>1778.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" s="2">
+        <f t="shared" si="5"/>
+        <v>1948.1000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B130" s="2">
+        <f t="shared" si="5"/>
+        <v>2117.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" s="2">
+        <f t="shared" si="5"/>
+        <v>2202.2000000000003</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="2">
+        <f t="shared" si="5"/>
+        <v>2286.9000000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" si="5"/>
+        <v>2371.6000000000004</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" s="2">
+        <f t="shared" si="5"/>
+        <v>2371.6000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" s="2">
+        <f t="shared" si="5"/>
+        <v>2286.9000000000005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" s="2">
+        <f t="shared" si="5"/>
+        <v>2202.2000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" s="2">
+        <f t="shared" si="5"/>
+        <v>2202.2000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B138" s="2">
+        <f t="shared" si="5"/>
+        <v>2117.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" s="2">
+        <f t="shared" si="5"/>
+        <v>2117.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B140" s="2">
+        <f t="shared" si="5"/>
+        <v>2286.9000000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B141" s="2">
+        <f t="shared" si="5"/>
+        <v>2456.3000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B142" s="2">
+        <f t="shared" si="5"/>
+        <v>2456.3000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" si="5"/>
+        <v>2286.9000000000005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B144" s="2">
+        <f t="shared" si="5"/>
+        <v>2117.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B145" s="2">
+        <f t="shared" si="5"/>
+        <v>2032.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B146" s="2">
+        <f>0.75*H2</f>
+        <v>1897.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B147" s="2">
+        <f t="shared" ref="B147:B169" si="6">0.75*H3</f>
+        <v>1732.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B148" s="2">
+        <f t="shared" si="6"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="2">
+        <f t="shared" si="6"/>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B150" s="2">
+        <f t="shared" si="6"/>
+        <v>1567.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B151" s="2">
+        <f t="shared" si="6"/>
+        <v>1567.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" s="2">
+        <f t="shared" si="6"/>
+        <v>1732.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" si="6"/>
+        <v>1897.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B154" s="2">
+        <f t="shared" si="6"/>
+        <v>2062.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="2">
+        <f t="shared" si="6"/>
+        <v>2145.0000000000005</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B156" s="2">
+        <f t="shared" si="6"/>
+        <v>2227.5000000000005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B157" s="2">
+        <f t="shared" si="6"/>
+        <v>2310.0000000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B158" s="2">
+        <f t="shared" si="6"/>
+        <v>2310.0000000000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" s="2">
+        <f t="shared" si="6"/>
+        <v>2227.5000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" s="2">
+        <f t="shared" si="6"/>
+        <v>2145.0000000000005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B161" s="2">
+        <f t="shared" si="6"/>
+        <v>2145.0000000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B162" s="2">
+        <f t="shared" si="6"/>
+        <v>2062.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" si="6"/>
+        <v>2062.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B164" s="2">
+        <f t="shared" si="6"/>
+        <v>2227.5000000000005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B165" s="2">
+        <f t="shared" si="6"/>
+        <v>2392.5000000000005</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B166" s="2">
+        <f t="shared" si="6"/>
+        <v>2392.5000000000005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="2">
+        <f t="shared" si="6"/>
+        <v>2227.5000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B168" s="2">
+        <f t="shared" si="6"/>
+        <v>2062.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B169" s="2">
+        <f t="shared" si="6"/>
+        <v>1980</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A383889-2DD6-40A0-997B-3BE66A12B465}">
+  <dimension ref="A1:B169"/>
+  <sheetViews>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,411 +2720,1350 @@
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2">
-        <v>2530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2">
-        <v>2310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2">
-        <v>2200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2">
-        <v>2090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2">
-        <v>2090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2">
-        <v>2310</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2">
-        <v>2530</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2">
-        <v>2750</v>
+        <v>147.19999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B11" s="2">
-        <v>2860.0000000000005</v>
+        <v>204.8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2">
-        <v>2970.0000000000005</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2">
-        <v>3080.0000000000005</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2">
-        <v>3080.0000000000005</v>
+        <v>308.8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2">
-        <v>2970.0000000000005</v>
+        <v>351.2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2">
-        <v>2860.0000000000005</v>
+        <v>341.6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2">
-        <v>2860.0000000000005</v>
+        <v>284.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2">
-        <v>2750</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2">
-        <v>2750</v>
+        <v>133.6</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2">
-        <v>2970.0000000000005</v>
+        <v>44.8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2">
-        <v>3190.0000000000005</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2">
-        <v>3190.0000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2">
-        <v>2970.0000000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2">
-        <v>2750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2">
-        <v>2640</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A383889-2DD6-40A0-997B-3BE66A12B465}">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="2">
         <v>6.4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2">
         <v>52.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2">
         <v>147.19999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2">
         <v>204.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="2">
         <v>264.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="2">
         <v>308.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="2">
         <v>351.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="2">
         <v>341.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2">
         <v>284.8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="2">
         <v>133.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="2">
         <v>44.8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="2">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" s="2">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B61" s="2">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="2">
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2">
+        <v>351.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="2">
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="2">
+        <v>284.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="2">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" s="2">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="2">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="2">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="2">
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="2">
+        <v>351.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="2">
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="2">
+        <v>284.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B90" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91" s="2">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B104" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B105" s="2">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="2">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B108" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="2">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B110" s="2">
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B111" s="2">
+        <v>351.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B112" s="2">
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B113" s="2">
+        <v>284.8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B114" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B115" s="2">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B128" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B129" s="2">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B130" s="2">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B131" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" s="2">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" s="2">
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" s="2">
+        <v>351.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B136" s="2">
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B137" s="2">
+        <v>284.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B138" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B139" s="2">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" s="2">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="2">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B154" s="2">
+        <v>147.19999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B155" s="2">
+        <v>204.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B156" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B157" s="2">
+        <v>264.8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B158" s="2">
+        <v>308.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B159" s="2">
+        <v>351.2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B160" s="2">
+        <v>341.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B161" s="2">
+        <v>284.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B162" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B163" s="2">
+        <v>133.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B164" s="2">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B169" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1063,42 +4074,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6DB4F6-0966-4EA6-9049-0169328E8261}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>70</v>
       </c>
       <c r="C2">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.95</v>
       </c>
     </row>
@@ -1109,1171 +4152,1274 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2511354B-3FC1-44E8-AE2A-F6AACA1F43A2}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2">
         <v>76</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>15.2</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>5636</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2818</v>
-      </c>
-      <c r="G2">
-        <v>1.33</v>
       </c>
       <c r="H2">
         <v>1.33</v>
       </c>
       <c r="I2">
+        <v>1.33</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>39</v>
       </c>
-      <c r="K2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>15.8</v>
+      </c>
+      <c r="F3">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>23.5</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>15.8</v>
+      </c>
+      <c r="F4">
+        <v>47</v>
+      </c>
+      <c r="G4">
+        <v>23.5</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>15.8</v>
+      </c>
+      <c r="F5">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>23.5</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6">
         <v>76</v>
       </c>
-      <c r="D3">
+      <c r="E6">
         <v>15.2</v>
       </c>
-      <c r="E3">
-        <v>5636</v>
-      </c>
-      <c r="F3">
-        <v>2818</v>
-      </c>
-      <c r="G3">
+      <c r="F6">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>23.5</v>
+      </c>
+      <c r="H6">
         <v>1.33</v>
       </c>
-      <c r="H3">
+      <c r="I6">
         <v>1.33</v>
       </c>
-      <c r="I3">
+      <c r="J6">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="K6">
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>76</v>
-      </c>
-      <c r="D4">
-        <v>15.2</v>
-      </c>
-      <c r="E4">
-        <v>5636</v>
-      </c>
-      <c r="F4">
-        <v>2818</v>
-      </c>
-      <c r="G4">
-        <v>1.33</v>
-      </c>
-      <c r="H4">
-        <v>1.33</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>40</v>
-      </c>
-      <c r="K4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5">
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="D5">
+      <c r="E7">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="F7">
         <v>3858</v>
       </c>
-      <c r="F5">
+      <c r="G7">
         <v>1929</v>
       </c>
-      <c r="G5">
+      <c r="H7">
         <v>4.67</v>
       </c>
-      <c r="H5">
+      <c r="I7">
         <v>4.67</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6">
-        <v>197</v>
-      </c>
-      <c r="D6">
-        <v>68.95</v>
-      </c>
-      <c r="E6">
-        <v>5759</v>
-      </c>
-      <c r="F6">
-        <v>2879.5</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>102</v>
-      </c>
-      <c r="K6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7">
-        <v>155</v>
-      </c>
-      <c r="D7">
-        <v>54.25</v>
-      </c>
-      <c r="E7">
-        <v>5735</v>
-      </c>
-      <c r="F7">
-        <v>2867.5</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C8">
-        <v>400</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3858</v>
       </c>
       <c r="G8">
-        <v>13.33</v>
+        <v>1929</v>
       </c>
       <c r="H8">
-        <v>13.33</v>
+        <v>4.67</v>
       </c>
       <c r="I8">
+        <v>4.67</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>339</v>
-      </c>
       <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="L8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>155</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>54.25</v>
+        <v>197</v>
       </c>
       <c r="E9">
-        <v>5735</v>
+        <v>68.95</v>
       </c>
       <c r="F9">
-        <v>2867.5</v>
+        <v>5759</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>2879.5</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10">
-        <v>20</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="D10">
-        <v>15.8</v>
+        <v>197</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>68.95</v>
       </c>
       <c r="F10">
-        <v>23.5</v>
+        <v>5759</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>2879.5</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>2.4</v>
+      </c>
+      <c r="F11">
+        <v>501</v>
+      </c>
+      <c r="G11">
+        <v>250.5</v>
+      </c>
+      <c r="H11">
+        <v>0.67</v>
+      </c>
+      <c r="I11">
+        <v>0.67</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>2.4</v>
+      </c>
+      <c r="F12">
+        <v>501</v>
+      </c>
+      <c r="G12">
+        <v>250.5</v>
+      </c>
+      <c r="H12">
+        <v>0.67</v>
+      </c>
+      <c r="I12">
+        <v>0.67</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>15.8</v>
-      </c>
-      <c r="E11">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>23.5</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D13">
+        <v>76</v>
+      </c>
+      <c r="E13">
+        <v>15.2</v>
+      </c>
+      <c r="F13">
+        <v>5636</v>
+      </c>
+      <c r="G13">
+        <v>2818</v>
+      </c>
+      <c r="H13">
+        <v>1.33</v>
+      </c>
+      <c r="I13">
+        <v>1.33</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>63</v>
+      </c>
+      <c r="L13">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>2.4</v>
+      </c>
+      <c r="F14">
+        <v>501</v>
+      </c>
+      <c r="G14">
+        <v>250.5</v>
+      </c>
+      <c r="H14">
+        <v>0.67</v>
+      </c>
+      <c r="I14">
+        <v>0.67</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>2.4</v>
+      </c>
+      <c r="F15">
+        <v>501</v>
+      </c>
+      <c r="G15">
+        <v>250.5</v>
+      </c>
+      <c r="H15">
+        <v>0.67</v>
+      </c>
+      <c r="I15">
+        <v>0.67</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>2.4</v>
+      </c>
+      <c r="F16">
+        <v>501</v>
+      </c>
+      <c r="G16">
+        <v>250.5</v>
+      </c>
+      <c r="H16">
+        <v>0.67</v>
+      </c>
+      <c r="I16">
+        <v>0.67</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>15.8</v>
-      </c>
-      <c r="E12">
-        <v>47</v>
-      </c>
-      <c r="F12">
-        <v>23.5</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>16</v>
-      </c>
-      <c r="K12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>15.8</v>
-      </c>
-      <c r="E13">
-        <v>47</v>
-      </c>
-      <c r="F13">
-        <v>23.5</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>19</v>
-      </c>
-      <c r="K13">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14">
-        <v>76</v>
-      </c>
-      <c r="D14">
-        <v>15.2</v>
-      </c>
-      <c r="E14">
-        <v>47</v>
-      </c>
-      <c r="F14">
-        <v>23.5</v>
-      </c>
-      <c r="G14">
-        <v>1.33</v>
-      </c>
-      <c r="H14">
-        <v>1.33</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>38</v>
-      </c>
-      <c r="K14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15">
-        <v>100</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>3858</v>
-      </c>
-      <c r="F15">
-        <v>1929</v>
-      </c>
-      <c r="G15">
-        <v>4.67</v>
-      </c>
-      <c r="H15">
-        <v>4.67</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <v>100</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>3858</v>
-      </c>
-      <c r="F16">
-        <v>1929</v>
-      </c>
-      <c r="G16">
-        <v>4.67</v>
-      </c>
-      <c r="H16">
-        <v>4.67</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>49</v>
-      </c>
-      <c r="K16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17">
-        <v>197</v>
-      </c>
       <c r="D17">
-        <v>68.95</v>
+        <v>155</v>
       </c>
       <c r="E17">
-        <v>5759</v>
+        <v>54.25</v>
       </c>
       <c r="F17">
-        <v>2879.5</v>
+        <v>5735</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>2867.5</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
+        <v>400</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>13.33</v>
+      </c>
+      <c r="I18">
+        <v>13.33</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>290</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18">
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>40</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>24</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21">
+        <v>50</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23">
+        <v>40</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>76</v>
+      </c>
+      <c r="E24">
+        <v>15.2</v>
+      </c>
+      <c r="F24">
+        <v>5636</v>
+      </c>
+      <c r="G24">
+        <v>2818</v>
+      </c>
+      <c r="H24">
+        <v>1.33</v>
+      </c>
+      <c r="I24">
+        <v>1.33</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="I25">
+        <v>40</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>25</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26">
+        <v>155</v>
+      </c>
+      <c r="E26">
+        <v>54.25</v>
+      </c>
+      <c r="F26">
+        <v>5735</v>
+      </c>
+      <c r="G26">
+        <v>2867.5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>83</v>
+      </c>
+      <c r="L26">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <v>350</v>
+      </c>
+      <c r="E27">
+        <v>140</v>
+      </c>
+      <c r="F27">
+        <v>30178</v>
+      </c>
+      <c r="G27">
+        <v>15089</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>191</v>
+      </c>
+      <c r="L27">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>3858</v>
+      </c>
+      <c r="G28">
+        <v>1929</v>
+      </c>
+      <c r="H28">
+        <v>4.67</v>
+      </c>
+      <c r="I28">
+        <v>4.67</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29">
         <v>197</v>
       </c>
-      <c r="D18">
+      <c r="E29">
         <v>68.95</v>
       </c>
-      <c r="E18">
+      <c r="F29">
         <v>5759</v>
       </c>
-      <c r="F18">
+      <c r="G29">
         <v>2879.5</v>
       </c>
-      <c r="G18">
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="H18">
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>2.4</v>
-      </c>
-      <c r="E19">
-        <v>501</v>
-      </c>
-      <c r="F19">
-        <v>250.5</v>
-      </c>
-      <c r="G19">
-        <v>0.67</v>
-      </c>
-      <c r="H19">
-        <v>0.67</v>
-      </c>
-      <c r="I19">
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
+      <c r="K29">
+        <v>102</v>
+      </c>
+      <c r="L29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30">
+        <v>155</v>
+      </c>
+      <c r="E30">
+        <v>54.25</v>
+      </c>
+      <c r="F30">
+        <v>5735</v>
+      </c>
+      <c r="G30">
+        <v>2867.5</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>113</v>
+      </c>
+      <c r="L30">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31">
+        <v>400</v>
+      </c>
+      <c r="E31">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>2.4</v>
-      </c>
-      <c r="E20">
-        <v>501</v>
-      </c>
-      <c r="F20">
-        <v>250.5</v>
-      </c>
-      <c r="G20">
-        <v>0.67</v>
-      </c>
-      <c r="H20">
-        <v>0.67</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>2.4</v>
-      </c>
-      <c r="E21">
-        <v>501</v>
-      </c>
-      <c r="F21">
-        <v>250.5</v>
-      </c>
-      <c r="G21">
-        <v>0.67</v>
-      </c>
-      <c r="H21">
-        <v>0.67</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>2.4</v>
-      </c>
-      <c r="E22">
-        <v>501</v>
-      </c>
-      <c r="F22">
-        <v>250.5</v>
-      </c>
-      <c r="G22">
-        <v>0.67</v>
-      </c>
-      <c r="H22">
-        <v>0.67</v>
-      </c>
-      <c r="I22">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>13.33</v>
+      </c>
+      <c r="I31">
+        <v>13.33</v>
+      </c>
+      <c r="J31">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>5</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23">
-        <v>12</v>
-      </c>
-      <c r="D23">
-        <v>2.4</v>
-      </c>
-      <c r="E23">
-        <v>501</v>
-      </c>
-      <c r="F23">
-        <v>250.5</v>
-      </c>
-      <c r="G23">
-        <v>0.67</v>
-      </c>
-      <c r="H23">
-        <v>0.67</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>8</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24">
+      <c r="K31">
+        <v>339</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32">
         <v>155</v>
       </c>
-      <c r="D24">
+      <c r="E32">
         <v>54.25</v>
       </c>
-      <c r="E24">
+      <c r="F32">
         <v>5735</v>
       </c>
-      <c r="F24">
+      <c r="G32">
         <v>2867.5</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>2</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25">
-        <v>400</v>
-      </c>
-      <c r="D25">
-        <v>100</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>13.33</v>
-      </c>
-      <c r="H25">
-        <v>13.33</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>290</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>40</v>
-      </c>
-      <c r="H26">
-        <v>40</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>40</v>
-      </c>
-      <c r="H27">
-        <v>40</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>24</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>40</v>
-      </c>
-      <c r="H28">
-        <v>40</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>40</v>
-      </c>
-      <c r="H29">
-        <v>40</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>40</v>
-      </c>
-      <c r="H30">
-        <v>40</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>40</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>40</v>
-      </c>
-      <c r="H31">
-        <v>40</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>25</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32">
-        <v>155</v>
-      </c>
-      <c r="D32">
-        <v>54.25</v>
-      </c>
-      <c r="E32">
-        <v>5735</v>
-      </c>
-      <c r="F32">
-        <v>2867.5</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33">
-        <v>350</v>
+        <v>40</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="D33">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>30178</v>
+        <v>15.8</v>
       </c>
       <c r="F33">
-        <v>15089</v>
+        <v>47</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>23.5</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
+    <sortCondition ref="A2:A33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2292,21 +5438,21 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5">
         <v>15.2</v>
@@ -2323,7 +5469,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>15.2</v>
@@ -2340,7 +5486,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>15.2</v>
@@ -2357,7 +5503,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>25</v>
@@ -2374,7 +5520,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>68.95</v>
@@ -2391,7 +5537,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5">
         <v>54.25</v>
@@ -2408,7 +5554,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>100</v>
@@ -2425,7 +5571,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>54.25</v>
@@ -2442,7 +5588,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>15.8</v>
@@ -2459,7 +5605,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>15.8</v>
@@ -2476,7 +5622,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
         <v>15.8</v>
@@ -2493,7 +5639,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5">
         <v>15.8</v>
@@ -2510,7 +5656,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5">
         <v>15.2</v>
@@ -2527,7 +5673,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>25</v>
@@ -2544,7 +5690,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5">
         <v>25</v>
@@ -2561,7 +5707,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5">
         <v>68.95</v>
@@ -2578,7 +5724,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
         <v>68.95</v>
@@ -2595,7 +5741,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>2.4</v>
@@ -2612,7 +5758,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>2.4</v>
@@ -2629,7 +5775,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5">
         <v>2.4</v>
@@ -2646,7 +5792,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5">
         <v>2.4</v>
@@ -2663,7 +5809,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5">
         <v>2.4</v>
@@ -2680,7 +5826,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5">
         <v>54.25</v>
@@ -2697,7 +5843,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5">
         <v>100</v>
@@ -2714,7 +5860,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5">
         <v>50</v>
@@ -2731,7 +5877,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5">
         <v>50</v>
@@ -2748,7 +5894,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5">
         <v>50</v>
@@ -2765,7 +5911,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5">
         <v>50</v>
@@ -2782,7 +5928,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5">
         <v>50</v>
@@ -2799,7 +5945,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5">
         <v>50</v>
@@ -2816,7 +5962,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5">
         <v>54.25</v>
@@ -2833,7 +5979,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5">
         <v>140</v>
@@ -2866,21 +6012,21 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5">
         <v>22.963999999999999</v>
@@ -2897,7 +6043,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B3" s="5">
         <v>22.963999999999999</v>
@@ -2914,7 +6060,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B4" s="5">
         <v>22.963999999999999</v>
@@ -2931,7 +6077,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>163.15</v>
@@ -2948,7 +6094,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>168.374</v>
@@ -2965,7 +6111,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5">
         <v>19.878</v>
@@ -2982,7 +6128,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>20.067</v>
@@ -2999,7 +6145,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>19.878</v>
@@ -3016,7 +6162,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>232.96199999999999</v>
@@ -3033,7 +6179,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>232.96199999999999</v>
@@ -3050,7 +6196,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B12" s="5">
         <v>232.96199999999999</v>
@@ -3067,7 +6213,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B13" s="5">
         <v>232.96199999999999</v>
@@ -3084,7 +6230,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B14" s="5">
         <v>22.963999999999999</v>
@@ -3101,7 +6247,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>163.15</v>
@@ -3118,7 +6264,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5">
         <v>163.15</v>
@@ -3135,7 +6281,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5">
         <v>168.374</v>
@@ -3152,7 +6298,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B18" s="5">
         <v>168.374</v>
@@ -3169,7 +6315,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B19" s="5">
         <v>205.304</v>
@@ -3186,7 +6332,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>205.304</v>
@@ -3203,7 +6349,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5">
         <v>205.304</v>
@@ -3220,7 +6366,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5">
         <v>205.304</v>
@@ -3237,7 +6383,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B23" s="5">
         <v>205.304</v>
@@ -3254,7 +6400,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5">
         <v>19.878</v>
@@ -3271,7 +6417,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5">
         <v>20.067</v>
@@ -3288,7 +6434,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B26" s="5">
         <v>0</v>
@@ -3305,7 +6451,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -3322,7 +6468,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B28" s="5">
         <v>0</v>
@@ -3339,7 +6485,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B29" s="5">
         <v>0</v>
@@ -3356,7 +6502,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5">
         <v>0</v>
@@ -3373,7 +6519,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B31" s="5">
         <v>0</v>
@@ -3390,7 +6536,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B32" s="5">
         <v>19.878</v>
@@ -3407,7 +6553,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B33" s="5">
         <v>20.207999999999998</v>

--- a/tests/input/unit_commitment.xlsx
+++ b/tests/input/unit_commitment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\whbles\pyaugmecon\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC20EC50-2C31-4C4E-AFF3-D5B7D1E445A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86899CE-D284-4AD3-8801-19C926368FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6420" yWindow="2910" windowWidth="24645" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4132,18 +4132,6 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.95</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/input/unit_commitment.xlsx
+++ b/tests/input/unit_commitment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\whbles\pyaugmecon\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86899CE-D284-4AD3-8801-19C926368FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E7D9F7-DF29-4EA0-8EC9-41322F808EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2910" windowWidth="24645" windowHeight="15495" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="2910" windowWidth="24645" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SystemDemand" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="142">
   <si>
     <t>SystemDemand</t>
   </si>
@@ -461,294 +461,6 @@
   </si>
   <si>
     <t>wed-t24</t>
-  </si>
-  <si>
-    <t>thu-t1</t>
-  </si>
-  <si>
-    <t>thu-t2</t>
-  </si>
-  <si>
-    <t>thu-t3</t>
-  </si>
-  <si>
-    <t>thu-t4</t>
-  </si>
-  <si>
-    <t>thu-t5</t>
-  </si>
-  <si>
-    <t>thu-t6</t>
-  </si>
-  <si>
-    <t>thu-t7</t>
-  </si>
-  <si>
-    <t>thu-t8</t>
-  </si>
-  <si>
-    <t>thu-t9</t>
-  </si>
-  <si>
-    <t>thu-t10</t>
-  </si>
-  <si>
-    <t>thu-t11</t>
-  </si>
-  <si>
-    <t>thu-t12</t>
-  </si>
-  <si>
-    <t>thu-t13</t>
-  </si>
-  <si>
-    <t>thu-t14</t>
-  </si>
-  <si>
-    <t>thu-t15</t>
-  </si>
-  <si>
-    <t>thu-t16</t>
-  </si>
-  <si>
-    <t>thu-t17</t>
-  </si>
-  <si>
-    <t>thu-t18</t>
-  </si>
-  <si>
-    <t>thu-t19</t>
-  </si>
-  <si>
-    <t>thu-t20</t>
-  </si>
-  <si>
-    <t>thu-t21</t>
-  </si>
-  <si>
-    <t>thu-t22</t>
-  </si>
-  <si>
-    <t>thu-t23</t>
-  </si>
-  <si>
-    <t>thu-t24</t>
-  </si>
-  <si>
-    <t>fri-t1</t>
-  </si>
-  <si>
-    <t>fri-t2</t>
-  </si>
-  <si>
-    <t>fri-t3</t>
-  </si>
-  <si>
-    <t>fri-t4</t>
-  </si>
-  <si>
-    <t>fri-t5</t>
-  </si>
-  <si>
-    <t>fri-t6</t>
-  </si>
-  <si>
-    <t>fri-t7</t>
-  </si>
-  <si>
-    <t>fri-t8</t>
-  </si>
-  <si>
-    <t>fri-t9</t>
-  </si>
-  <si>
-    <t>fri-t10</t>
-  </si>
-  <si>
-    <t>fri-t11</t>
-  </si>
-  <si>
-    <t>fri-t12</t>
-  </si>
-  <si>
-    <t>fri-t13</t>
-  </si>
-  <si>
-    <t>fri-t14</t>
-  </si>
-  <si>
-    <t>fri-t15</t>
-  </si>
-  <si>
-    <t>fri-t16</t>
-  </si>
-  <si>
-    <t>fri-t17</t>
-  </si>
-  <si>
-    <t>fri-t18</t>
-  </si>
-  <si>
-    <t>fri-t19</t>
-  </si>
-  <si>
-    <t>fri-t20</t>
-  </si>
-  <si>
-    <t>fri-t21</t>
-  </si>
-  <si>
-    <t>fri-t22</t>
-  </si>
-  <si>
-    <t>fri-t23</t>
-  </si>
-  <si>
-    <t>fri-t24</t>
-  </si>
-  <si>
-    <t>sat-t1</t>
-  </si>
-  <si>
-    <t>sat-t2</t>
-  </si>
-  <si>
-    <t>sat-t3</t>
-  </si>
-  <si>
-    <t>sat-t4</t>
-  </si>
-  <si>
-    <t>sat-t5</t>
-  </si>
-  <si>
-    <t>sat-t6</t>
-  </si>
-  <si>
-    <t>sat-t7</t>
-  </si>
-  <si>
-    <t>sat-t8</t>
-  </si>
-  <si>
-    <t>sat-t9</t>
-  </si>
-  <si>
-    <t>sat-t10</t>
-  </si>
-  <si>
-    <t>sat-t11</t>
-  </si>
-  <si>
-    <t>sat-t12</t>
-  </si>
-  <si>
-    <t>sat-t13</t>
-  </si>
-  <si>
-    <t>sat-t14</t>
-  </si>
-  <si>
-    <t>sat-t15</t>
-  </si>
-  <si>
-    <t>sat-t16</t>
-  </si>
-  <si>
-    <t>sat-t17</t>
-  </si>
-  <si>
-    <t>sat-t18</t>
-  </si>
-  <si>
-    <t>sat-t19</t>
-  </si>
-  <si>
-    <t>sat-t20</t>
-  </si>
-  <si>
-    <t>sat-t21</t>
-  </si>
-  <si>
-    <t>sat-t22</t>
-  </si>
-  <si>
-    <t>sat-t23</t>
-  </si>
-  <si>
-    <t>sat-t24</t>
-  </si>
-  <si>
-    <t>sun-t1</t>
-  </si>
-  <si>
-    <t>sun-t2</t>
-  </si>
-  <si>
-    <t>sun-t3</t>
-  </si>
-  <si>
-    <t>sun-t4</t>
-  </si>
-  <si>
-    <t>sun-t5</t>
-  </si>
-  <si>
-    <t>sun-t6</t>
-  </si>
-  <si>
-    <t>sun-t7</t>
-  </si>
-  <si>
-    <t>sun-t8</t>
-  </si>
-  <si>
-    <t>sun-t9</t>
-  </si>
-  <si>
-    <t>sun-t10</t>
-  </si>
-  <si>
-    <t>sun-t11</t>
-  </si>
-  <si>
-    <t>sun-t12</t>
-  </si>
-  <si>
-    <t>sun-t13</t>
-  </si>
-  <si>
-    <t>sun-t14</t>
-  </si>
-  <si>
-    <t>sun-t15</t>
-  </si>
-  <si>
-    <t>sun-t16</t>
-  </si>
-  <si>
-    <t>sun-t17</t>
-  </si>
-  <si>
-    <t>sun-t18</t>
-  </si>
-  <si>
-    <t>sun-t19</t>
-  </si>
-  <si>
-    <t>sun-t20</t>
-  </si>
-  <si>
-    <t>sun-t21</t>
-  </si>
-  <si>
-    <t>sun-t22</t>
-  </si>
-  <si>
-    <t>sun-t23</t>
-  </si>
-  <si>
-    <t>sun-t24</t>
   </si>
   <si>
     <t>ESS2</t>
@@ -1102,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15DE950-C5FB-4373-941F-2DB97A6028B7}">
   <dimension ref="A1:H169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A169" sqref="A2:A169"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,868 +1550,388 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="2">
-        <f>0.96*H2</f>
-        <v>2428.7999999999997</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="2">
-        <f t="shared" ref="B75:B97" si="3">0.96*H3</f>
-        <v>2217.6</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="2">
-        <f t="shared" si="3"/>
-        <v>2112</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="2">
-        <f t="shared" si="3"/>
-        <v>2112</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="2">
-        <f t="shared" si="3"/>
-        <v>2006.3999999999999</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" s="2">
-        <f t="shared" si="3"/>
-        <v>2006.3999999999999</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="2">
-        <f t="shared" si="3"/>
-        <v>2217.6</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="2">
-        <f t="shared" si="3"/>
-        <v>2428.7999999999997</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="2">
-        <f t="shared" si="3"/>
-        <v>2640</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="2">
-        <f t="shared" si="3"/>
-        <v>2745.6000000000004</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="2">
-        <f t="shared" si="3"/>
-        <v>2851.2000000000003</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="2">
-        <f t="shared" si="3"/>
-        <v>2956.8</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" s="2">
-        <f t="shared" si="3"/>
-        <v>2956.8</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="2">
-        <f t="shared" si="3"/>
-        <v>2851.2000000000003</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="2">
-        <f t="shared" si="3"/>
-        <v>2745.6000000000004</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B89" s="2">
-        <f t="shared" si="3"/>
-        <v>2745.6000000000004</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="2">
-        <f t="shared" si="3"/>
-        <v>2640</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" s="2">
-        <f t="shared" si="3"/>
-        <v>2640</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="2">
-        <f t="shared" si="3"/>
-        <v>2851.2000000000003</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="2">
-        <f t="shared" si="3"/>
-        <v>3062.4000000000005</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" s="2">
-        <f t="shared" si="3"/>
-        <v>3062.4000000000005</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95" s="2">
-        <f t="shared" si="3"/>
-        <v>2851.2000000000003</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="2">
-        <f t="shared" si="3"/>
-        <v>2640</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" s="2">
-        <f t="shared" si="3"/>
-        <v>2534.4</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="2">
-        <f>0.94*H2</f>
-        <v>2378.1999999999998</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="2">
-        <f t="shared" ref="B99:B121" si="4">0.94*H3</f>
-        <v>2171.4</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" s="2">
-        <f t="shared" si="4"/>
-        <v>2068</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" s="2">
-        <f t="shared" si="4"/>
-        <v>2068</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="2">
-        <f t="shared" si="4"/>
-        <v>1964.6</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" s="2">
-        <f t="shared" si="4"/>
-        <v>1964.6</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" s="2">
-        <f t="shared" si="4"/>
-        <v>2171.4</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="2">
-        <f t="shared" si="4"/>
-        <v>2378.1999999999998</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" s="2">
-        <f t="shared" si="4"/>
-        <v>2585</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" s="2">
-        <f t="shared" si="4"/>
-        <v>2688.4</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" s="2">
-        <f t="shared" si="4"/>
-        <v>2791.8</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="2">
-        <f t="shared" si="4"/>
-        <v>2895.2000000000003</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B110" s="2">
-        <f t="shared" si="4"/>
-        <v>2895.2000000000003</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B111" s="2">
-        <f t="shared" si="4"/>
-        <v>2791.8</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B112" s="2">
-        <f t="shared" si="4"/>
-        <v>2688.4</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B113" s="2">
-        <f t="shared" si="4"/>
-        <v>2688.4</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B114" s="2">
-        <f t="shared" si="4"/>
-        <v>2585</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" s="2">
-        <f t="shared" si="4"/>
-        <v>2585</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B116" s="2">
-        <f t="shared" si="4"/>
-        <v>2791.8</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B117" s="2">
-        <f t="shared" si="4"/>
-        <v>2998.6000000000004</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B118" s="2">
-        <f t="shared" si="4"/>
-        <v>2998.6000000000004</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B119" s="2">
-        <f t="shared" si="4"/>
-        <v>2791.8</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" s="2">
-        <f t="shared" si="4"/>
-        <v>2585</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" s="2">
-        <f t="shared" si="4"/>
-        <v>2481.6</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="2">
-        <f>0.77*H2</f>
-        <v>1948.1000000000001</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B123" s="2">
-        <f t="shared" ref="B123:B145" si="5">0.77*H3</f>
-        <v>1778.7</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="2">
-        <f t="shared" si="5"/>
-        <v>1694</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B125" s="2">
-        <f t="shared" si="5"/>
-        <v>1694</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B126" s="2">
-        <f t="shared" si="5"/>
-        <v>1609.3</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B127" s="2">
-        <f t="shared" si="5"/>
-        <v>1609.3</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" s="2">
-        <f t="shared" si="5"/>
-        <v>1778.7</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B129" s="2">
-        <f t="shared" si="5"/>
-        <v>1948.1000000000001</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B130" s="2">
-        <f t="shared" si="5"/>
-        <v>2117.5</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B131" s="2">
-        <f t="shared" si="5"/>
-        <v>2202.2000000000003</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B132" s="2">
-        <f t="shared" si="5"/>
-        <v>2286.9000000000005</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="2">
-        <f t="shared" si="5"/>
-        <v>2371.6000000000004</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B134" s="2">
-        <f t="shared" si="5"/>
-        <v>2371.6000000000004</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B135" s="2">
-        <f t="shared" si="5"/>
-        <v>2286.9000000000005</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="2">
-        <f t="shared" si="5"/>
-        <v>2202.2000000000003</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B137" s="2">
-        <f t="shared" si="5"/>
-        <v>2202.2000000000003</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B138" s="2">
-        <f t="shared" si="5"/>
-        <v>2117.5</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B139" s="2">
-        <f t="shared" si="5"/>
-        <v>2117.5</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B140" s="2">
-        <f t="shared" si="5"/>
-        <v>2286.9000000000005</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="2">
-        <f t="shared" si="5"/>
-        <v>2456.3000000000002</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B142" s="2">
-        <f t="shared" si="5"/>
-        <v>2456.3000000000002</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B143" s="2">
-        <f t="shared" si="5"/>
-        <v>2286.9000000000005</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B144" s="2">
-        <f t="shared" si="5"/>
-        <v>2117.5</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B145" s="2">
-        <f t="shared" si="5"/>
-        <v>2032.8</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B146" s="2">
-        <f>0.75*H2</f>
-        <v>1897.5</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B147" s="2">
-        <f t="shared" ref="B147:B169" si="6">0.75*H3</f>
-        <v>1732.5</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B148" s="2">
-        <f t="shared" si="6"/>
-        <v>1650</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B149" s="2">
-        <f t="shared" si="6"/>
-        <v>1650</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B150" s="2">
-        <f t="shared" si="6"/>
-        <v>1567.5</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B151" s="2">
-        <f t="shared" si="6"/>
-        <v>1567.5</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B152" s="2">
-        <f t="shared" si="6"/>
-        <v>1732.5</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B153" s="2">
-        <f t="shared" si="6"/>
-        <v>1897.5</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B154" s="2">
-        <f t="shared" si="6"/>
-        <v>2062.5</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B155" s="2">
-        <f t="shared" si="6"/>
-        <v>2145.0000000000005</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B156" s="2">
-        <f t="shared" si="6"/>
-        <v>2227.5000000000005</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B157" s="2">
-        <f t="shared" si="6"/>
-        <v>2310.0000000000005</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B158" s="2">
-        <f t="shared" si="6"/>
-        <v>2310.0000000000005</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B159" s="2">
-        <f t="shared" si="6"/>
-        <v>2227.5000000000005</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B160" s="2">
-        <f t="shared" si="6"/>
-        <v>2145.0000000000005</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B161" s="2">
-        <f t="shared" si="6"/>
-        <v>2145.0000000000005</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B162" s="2">
-        <f t="shared" si="6"/>
-        <v>2062.5</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B163" s="2">
-        <f t="shared" si="6"/>
-        <v>2062.5</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B164" s="2">
-        <f t="shared" si="6"/>
-        <v>2227.5000000000005</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B165" s="2">
-        <f t="shared" si="6"/>
-        <v>2392.5000000000005</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B166" s="2">
-        <f t="shared" si="6"/>
-        <v>2392.5000000000005</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B167" s="2">
-        <f t="shared" si="6"/>
-        <v>2227.5000000000005</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B168" s="2">
-        <f t="shared" si="6"/>
-        <v>2062.5</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B169" s="2">
-        <f t="shared" si="6"/>
-        <v>1980</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2711,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A383889-2DD6-40A0-997B-3BE66A12B465}">
   <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146:B169"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B169" sqref="A74:B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3300,772 +2532,388 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" s="2">
-        <v>0</v>
-      </c>
+      <c r="A74" s="1"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B75" s="2">
-        <v>0</v>
-      </c>
+      <c r="A75" s="1"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76" s="2">
-        <v>0</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="2">
-        <v>0</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="2">
-        <v>0</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B79" s="2">
-        <v>0</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B80" s="2">
-        <v>6.4</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B81" s="2">
-        <v>52.8</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="2">
-        <v>147.19999999999999</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B83" s="2">
-        <v>204.8</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" s="2">
-        <v>224</v>
-      </c>
+      <c r="A84" s="1"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B85" s="2">
-        <v>264.8</v>
-      </c>
+      <c r="A85" s="1"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B86" s="2">
-        <v>308.8</v>
-      </c>
+      <c r="A86" s="1"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="2">
-        <v>351.2</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B88" s="2">
-        <v>341.6</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B89" s="2">
-        <v>284.8</v>
-      </c>
+      <c r="A89" s="1"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B90" s="2">
-        <v>244</v>
-      </c>
+      <c r="A90" s="1"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B91" s="2">
-        <v>133.6</v>
-      </c>
+      <c r="A91" s="1"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="2">
-        <v>44.8</v>
-      </c>
+      <c r="A92" s="1"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1.6</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95" s="2">
-        <v>0</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="2">
-        <v>0</v>
-      </c>
+      <c r="A96" s="1"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B97" s="2">
-        <v>0</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="2">
-        <v>0</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="2">
-        <v>0</v>
-      </c>
+      <c r="A99" s="1"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" s="2">
-        <v>0</v>
-      </c>
+      <c r="A100" s="1"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" s="2">
-        <v>0</v>
-      </c>
+      <c r="A101" s="1"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B102" s="2">
-        <v>0</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B103" s="2">
-        <v>0</v>
-      </c>
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B104" s="2">
-        <v>6.4</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B105" s="2">
-        <v>52.8</v>
-      </c>
+      <c r="A105" s="1"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B106" s="2">
-        <v>147.19999999999999</v>
-      </c>
+      <c r="A106" s="1"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B107" s="2">
-        <v>204.8</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B108" s="2">
-        <v>224</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B109" s="2">
-        <v>264.8</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B110" s="2">
-        <v>308.8</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B111" s="2">
-        <v>351.2</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B112" s="2">
-        <v>341.6</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B113" s="2">
-        <v>284.8</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B114" s="2">
-        <v>244</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B115" s="2">
-        <v>133.6</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B116" s="2">
-        <v>44.8</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B117" s="2">
-        <v>1.6</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B118" s="2">
-        <v>0</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B119" s="2">
-        <v>0</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B120" s="2">
-        <v>0</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B121" s="2">
-        <v>0</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B122" s="2">
-        <v>0</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B123" s="2">
-        <v>0</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B124" s="2">
-        <v>0</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B125" s="2">
-        <v>0</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B126" s="2">
-        <v>0</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B127" s="2">
-        <v>0</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B128" s="2">
-        <v>6.4</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B129" s="2">
-        <v>52.8</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B130" s="2">
-        <v>147.19999999999999</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B131" s="2">
-        <v>204.8</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B132" s="2">
-        <v>224</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B133" s="2">
-        <v>264.8</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B134" s="2">
-        <v>308.8</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B135" s="2">
-        <v>351.2</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="2">
-        <v>341.6</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B137" s="2">
-        <v>284.8</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B138" s="2">
-        <v>244</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B139" s="2">
-        <v>133.6</v>
-      </c>
+      <c r="A139" s="1"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B140" s="2">
-        <v>44.8</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B141" s="2">
-        <v>1.6</v>
-      </c>
+      <c r="A141" s="1"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B142" s="2">
-        <v>0</v>
-      </c>
+      <c r="A142" s="1"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B143" s="2">
-        <v>0</v>
-      </c>
+      <c r="A143" s="1"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B144" s="2">
-        <v>0</v>
-      </c>
+      <c r="A144" s="1"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B145" s="2">
-        <v>0</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B146" s="2">
-        <v>0</v>
-      </c>
+      <c r="A146" s="1"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B147" s="2">
-        <v>0</v>
-      </c>
+      <c r="A147" s="1"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B148" s="2">
-        <v>0</v>
-      </c>
+      <c r="A148" s="1"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B149" s="2">
-        <v>0</v>
-      </c>
+      <c r="A149" s="1"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B150" s="2">
-        <v>0</v>
-      </c>
+      <c r="A150" s="1"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B151" s="2">
-        <v>0</v>
-      </c>
+      <c r="A151" s="1"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B152" s="2">
-        <v>6.4</v>
-      </c>
+      <c r="A152" s="1"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B153" s="2">
-        <v>52.8</v>
-      </c>
+      <c r="A153" s="1"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B154" s="2">
-        <v>147.19999999999999</v>
-      </c>
+      <c r="A154" s="1"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B155" s="2">
-        <v>204.8</v>
-      </c>
+      <c r="A155" s="1"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B156" s="2">
-        <v>224</v>
-      </c>
+      <c r="A156" s="1"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B157" s="2">
-        <v>264.8</v>
-      </c>
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B158" s="2">
-        <v>308.8</v>
-      </c>
+      <c r="A158" s="1"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B159" s="2">
-        <v>351.2</v>
-      </c>
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B160" s="2">
-        <v>341.6</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B161" s="2">
-        <v>284.8</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B162" s="2">
-        <v>244</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B163" s="2">
-        <v>133.6</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B164" s="2">
-        <v>44.8</v>
-      </c>
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B165" s="2">
-        <v>1.6</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B166" s="2">
-        <v>0</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B167" s="2">
-        <v>0</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B168" s="2">
-        <v>0</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B169" s="2">
-        <v>0</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4076,7 +2924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6DB4F6-0966-4EA6-9049-0169328E8261}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
@@ -4115,7 +2963,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>237</v>
+        <v>141</v>
       </c>
       <c r="B3">
         <v>100</v>
